--- a/Invoice processing.xlsx
+++ b/Invoice processing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/pranav_baviskar_accenture_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F162926-8D81-492B-85E1-451CC7440442}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2660DC4B-0741-455D-9692-D2C3E1004056}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87C260BA-4DB4-484A-B408-8FEE2F84682D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Agency</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>T036241</t>
+  </si>
+  <si>
+    <t>C037162</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -271,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -610,7 +613,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,6 +672,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>

--- a/Invoice processing.xlsx
+++ b/Invoice processing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/pranav_baviskar_accenture_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2660DC4B-0741-455D-9692-D2C3E1004056}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8290C71E-DA19-427B-BE11-4B0A191BA230}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87C260BA-4DB4-484A-B408-8FEE2F84682D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Agency</t>
   </si>
@@ -44,15 +44,6 @@
     <t xml:space="preserve">Vendor/Merchant </t>
   </si>
   <si>
-    <t>Contractor EIN</t>
-  </si>
-  <si>
-    <t>Contract Start Date</t>
-  </si>
-  <si>
-    <t>Contract End Date</t>
-  </si>
-  <si>
     <t>Health, Department of (Incl. HRI)</t>
   </si>
   <si>
@@ -68,12 +59,6 @@
     <t>QUEST DIAGNOSTICS INC</t>
   </si>
   <si>
-    <t>11/10/2021</t>
-  </si>
-  <si>
-    <t>12/28/2021</t>
-  </si>
-  <si>
     <t>STATEN ISLAND UNIVERSITY HOSPITAL</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
     <t>4/15/2020</t>
   </si>
   <si>
-    <t>Contract Amount</t>
-  </si>
-  <si>
     <t>Contract Number</t>
   </si>
   <si>
@@ -99,17 +81,37 @@
   </si>
   <si>
     <t>C037162</t>
+  </si>
+  <si>
+    <t>Original Contract Start Date</t>
+  </si>
+  <si>
+    <t>Original Contract End Date</t>
+  </si>
+  <si>
+    <t>Contract Value</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>03/31/2022</t>
+  </si>
+  <si>
+    <t>New Contract Start Date</t>
+  </si>
+  <si>
+    <t>New Contract End Date</t>
+  </si>
+  <si>
+    <t>09/30/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,15 +130,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +156,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -238,11 +227,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -262,22 +250,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,24 +593,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18362756-CA92-40FD-9E7F-1A924BD92EEE}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.6328125" customWidth="1"/>
     <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>18</v>
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -635,95 +617,101 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
+        <v>25500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>472528627</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>20800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13">
-        <v>25500000</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8">
-        <v>161387862</v>
-      </c>
-      <c r="E3" s="8" t="s">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5">
-        <v>112868878</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10">
-        <v>43565120</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Invoice processing.xlsx
+++ b/Invoice processing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/pranav_baviskar_accenture_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8290C71E-DA19-427B-BE11-4B0A191BA230}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C884783-4B3B-44B0-9701-0031C07F2BD7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87C260BA-4DB4-484A-B408-8FEE2F84682D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +41,6 @@
     <t>Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendor/Merchant </t>
-  </si>
-  <si>
     <t>Health, Department of (Incl. HRI)</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>09/30/2022</t>
+  </si>
+  <si>
+    <t>Vendor/Merchant</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,7 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +595,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,45 +608,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -657,25 +656,25 @@
     </row>
     <row r="3" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4">
         <v>20800000</v>
@@ -683,35 +682,35 @@
     </row>
     <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Invoice processing.xlsx
+++ b/Invoice processing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/pranav_baviskar_accenture_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C884783-4B3B-44B0-9701-0031C07F2BD7}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC1D587-CCB5-4183-B0B8-C5A61690898C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87C260BA-4DB4-484A-B408-8FEE2F84682D}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>New Contract End Date</t>
   </si>
   <si>
-    <t>09/30/2022</t>
-  </si>
-  <si>
     <t>Vendor/Merchant</t>
+  </si>
+  <si>
+    <t>09/30/2025</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
@@ -674,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4">
         <v>20800000</v>

--- a/Invoice processing.xlsx
+++ b/Invoice processing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/pranav_baviskar_accenture_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC1D587-CCB5-4183-B0B8-C5A61690898C}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{226880BB-D307-4964-893D-1044ADD538FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1520CB-F455-4A50-850E-CC859051A229}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87C260BA-4DB4-484A-B408-8FEE2F84682D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Agency</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>09/30/2025</t>
+  </si>
+  <si>
+    <t>06/26/2021</t>
+  </si>
+  <si>
+    <t>03-16-2020</t>
   </si>
 </sst>
 </file>
@@ -595,14 +601,16 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.6328125" customWidth="1"/>
     <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,8 +656,12 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="5">
         <v>25500000</v>
       </c>
